--- a/biology/Botanique/Véronique_des_Alpes/Véronique_des_Alpes.xlsx
+++ b/biology/Botanique/Véronique_des_Alpes/Véronique_des_Alpes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_des_Alpes</t>
+          <t>Véronique_des_Alpes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Veronica alpina
 La véronique des Alpes (Veronica alpina L.) est une petite plante vivace à fleurs bleues appartenant au genre Veronica et à la famille des Plantaginacées (les véroniques étaient auparavant classées dans les Scrofulariacées). Elle pousse en montagne et apprécie particulièrement les lieux rocheux ou caillouteux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_des_Alpes</t>
+          <t>Véronique_des_Alpes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Autres noms</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Véronique mâle, thé d'Europe, thé des ladres, manna[1] (mais ces noms sont ceux donnés à la véronique officinale par l'herboriste Maria Treben[2]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Véronique mâle, thé d'Europe, thé des ladres, manna (mais ces noms sont ceux donnés à la véronique officinale par l'herboriste Maria Treben).
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9ronique_des_Alpes</t>
+          <t>Véronique_des_Alpes</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,14 +559,124 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace assez rare en France, où on la rencontre dans les Alpes, le Jura, les Pyrénées, la Corse ou le Massif central, de 1 500 à 3 200 mètres. On la trouve aussi, à des altitudes plus basses, en Grande-Bretagne, en Scandinavie et en Islande. Elle apprécie les lieux plutôt humides et rocailleux. Floraison en juillet et août.
-Morphologie générale et végétative
-Plante assez basse dépassant rarement 10 cm, glabre ou pubescente, à tige couchée à la base, puis ascendante à érigée. Feuilles opposées, sessiles, ovales ou elliptiques, entières ou très finement dentées, parfois légèrement ciliées.
-Morphologie florale
-Fleurs hermaphrodites groupées en petits racèmes terminaux. Calice à quatre sépales portant de longs cils blancs. Corolle inférieure à 1 cm, à quatre pétales bleu vif à bleu foncé. Comme chez toutes les véroniques, l'ovaire est supère, le style, assez long, est entouré de deux étamines. Pollinisation par les insectes ou autogame.
-Fruit et graines
-Le fruit est une capsule ovale et glabre, à extrémité arrondie. Dissémination épizoochore.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante vivace assez rare en France, où on la rencontre dans les Alpes, le Jura, les Pyrénées, la Corse ou le Massif central, de 1 500 à 3 200 mètres. On la trouve aussi, à des altitudes plus basses, en Grande-Bretagne, en Scandinavie et en Islande. Elle apprécie les lieux plutôt humides et rocailleux. Floraison en juillet et août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véronique_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante assez basse dépassant rarement 10 cm, glabre ou pubescente, à tige couchée à la base, puis ascendante à érigée. Feuilles opposées, sessiles, ovales ou elliptiques, entières ou très finement dentées, parfois légèrement ciliées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véronique_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fleurs hermaphrodites groupées en petits racèmes terminaux. Calice à quatre sépales portant de longs cils blancs. Corolle inférieure à 1 cm, à quatre pétales bleu vif à bleu foncé. Comme chez toutes les véroniques, l'ovaire est supère, le style, assez long, est entouré de deux étamines. Pollinisation par les insectes ou autogame.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Véronique_des_Alpes</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9ronique_des_Alpes</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est une capsule ovale et glabre, à extrémité arrondie. Dissémination épizoochore.
 </t>
         </is>
       </c>
